--- a/IrmaMudThicknessComparisonsJuneUpdate.xlsx
+++ b/IrmaMudThicknessComparisonsJuneUpdate.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lszczyrba/Project_3.6.3/HelloWorld/Irma_Sediment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78197EA1-186B-8442-8869-B0B7A073C949}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAF7943-3404-3F45-A72C-900926207A96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="460" windowWidth="24920" windowHeight="18860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="1040" windowWidth="24920" windowHeight="18860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$L$132</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="129">
   <si>
     <t>Region</t>
   </si>
@@ -412,6 +412,12 @@
   </si>
   <si>
     <t>ThicknessD3cm</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Thickness</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -484,6 +490,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,11 +773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,110 +793,84 @@
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D1" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4">
-        <v>43172</v>
-      </c>
-      <c r="F2" s="4">
-        <v>43267</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="J2">
-        <v>24.677630000000001</v>
-      </c>
-      <c r="K2">
-        <v>-81.655029999999996</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="4">
-        <v>43087</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4">
-        <v>43127</v>
+        <v>43172</v>
       </c>
       <c r="F3" s="4">
-        <v>43270</v>
-      </c>
-      <c r="G3">
-        <v>0.5</v>
+        <v>43267</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I3" s="6">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3">
-        <v>25.901489999999999</v>
-      </c>
-      <c r="K3" s="3">
-        <v>-81.510279999999995</v>
+        <v>1.5</v>
+      </c>
+      <c r="J3">
+        <v>24.677630000000001</v>
+      </c>
+      <c r="K3">
+        <v>-81.655029999999996</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -901,7 +884,7 @@
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="4">
         <v>43087</v>
@@ -913,19 +896,19 @@
         <v>43270</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I4" s="6">
-        <v>0.75</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3">
-        <v>25.901530000000001</v>
+        <v>25.901489999999999</v>
       </c>
       <c r="K4" s="3">
-        <v>-81.510339999999999</v>
+        <v>-81.510279999999995</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -939,7 +922,7 @@
         <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" s="4">
         <v>43087</v>
@@ -951,19 +934,19 @@
         <v>43270</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>0.5</v>
       </c>
-      <c r="H5">
-        <v>1.5</v>
-      </c>
       <c r="I5" s="6">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J5" s="3">
-        <v>25.90156</v>
+        <v>25.901530000000001</v>
       </c>
       <c r="K5" s="3">
-        <v>-81.510390000000001</v>
+        <v>-81.510339999999999</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -977,7 +960,7 @@
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="4">
         <v>43087</v>
@@ -989,19 +972,19 @@
         <v>43270</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="6">
         <v>0.5</v>
       </c>
       <c r="J6" s="3">
-        <v>25.901599999999998</v>
+        <v>25.90156</v>
       </c>
       <c r="K6" s="3">
-        <v>-81.510409999999993</v>
+        <v>-81.510390000000001</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1015,7 +998,7 @@
         <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4">
         <v>43087</v>
@@ -1030,16 +1013,16 @@
         <v>1</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
         <v>0.5</v>
       </c>
-      <c r="I7" s="6">
-        <v>1.5</v>
-      </c>
       <c r="J7" s="3">
-        <v>25.90165</v>
+        <v>25.901599999999998</v>
       </c>
       <c r="K7" s="3">
-        <v>-81.510490000000004</v>
+        <v>-81.510409999999993</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1053,7 +1036,7 @@
         <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" s="4">
         <v>43087</v>
@@ -1065,19 +1048,19 @@
         <v>43270</v>
       </c>
       <c r="G8">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="6">
         <v>1.5</v>
       </c>
-      <c r="I8" s="6">
-        <v>2</v>
-      </c>
       <c r="J8" s="3">
-        <v>25.901620000000001</v>
+        <v>25.90165</v>
       </c>
       <c r="K8" s="3">
-        <v>-81.510530000000003</v>
+        <v>-81.510490000000004</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1091,7 +1074,7 @@
         <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="4">
         <v>43087</v>
@@ -1103,19 +1086,19 @@
         <v>43270</v>
       </c>
       <c r="G9">
+        <v>0.05</v>
+      </c>
+      <c r="H9">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="6">
         <v>2</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1.5</v>
-      </c>
       <c r="J9" s="3">
-        <v>25.901689999999999</v>
+        <v>25.901620000000001</v>
       </c>
       <c r="K9" s="3">
-        <v>-81.510589999999993</v>
+        <v>-81.510530000000003</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1129,7 +1112,7 @@
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="4">
         <v>43087</v>
@@ -1141,19 +1124,19 @@
         <v>43270</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" s="6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J10" s="3">
-        <v>25.90175</v>
+        <v>25.901689999999999</v>
       </c>
       <c r="K10" s="3">
-        <v>-81.510620000000003</v>
+        <v>-81.510589999999993</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1167,7 +1150,7 @@
         <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="4">
         <v>43087</v>
@@ -1179,7 +1162,7 @@
         <v>43270</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1188,10 +1171,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="3">
-        <v>25.901779999999999</v>
+        <v>25.90175</v>
       </c>
       <c r="K11" s="3">
-        <v>-81.510639999999995</v>
+        <v>-81.510620000000003</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1205,7 +1188,7 @@
         <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="4">
         <v>43087</v>
@@ -1217,19 +1200,19 @@
         <v>43270</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" s="6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J12" s="3">
-        <v>25.901810000000001</v>
+        <v>25.901779999999999</v>
       </c>
       <c r="K12" s="3">
-        <v>-81.510649999999998</v>
+        <v>-81.510639999999995</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1243,7 +1226,7 @@
         <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="4">
         <v>43087</v>
@@ -1258,16 +1241,16 @@
         <v>2</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J13" s="3">
-        <v>25.901859999999999</v>
+        <v>25.901810000000001</v>
       </c>
       <c r="K13" s="3">
-        <v>-81.5107</v>
+        <v>-81.510649999999998</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1281,7 +1264,7 @@
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="4">
         <v>43087</v>
@@ -1293,19 +1276,19 @@
         <v>43270</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I14" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>25.901900000000001</v>
+        <v>25.901859999999999</v>
       </c>
       <c r="K14" s="3">
-        <v>-81.510760000000005</v>
+        <v>-81.5107</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1319,7 +1302,7 @@
         <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" s="4">
         <v>43087</v>
@@ -1334,16 +1317,16 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I15" s="6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J15" s="3">
-        <v>25.90192</v>
+        <v>25.901900000000001</v>
       </c>
       <c r="K15" s="3">
-        <v>-81.510769999999994</v>
+        <v>-81.510760000000005</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1357,7 +1340,7 @@
         <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16" s="4">
         <v>43087</v>
@@ -1369,19 +1352,19 @@
         <v>43270</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3">
-        <v>25.901969999999999</v>
+        <v>25.90192</v>
       </c>
       <c r="K16" s="3">
-        <v>-81.510819999999995</v>
+        <v>-81.510769999999994</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1395,7 +1378,7 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="4">
         <v>43087</v>
@@ -1410,16 +1393,16 @@
         <v>2</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="6">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>25.901959999999999</v>
+        <v>25.901969999999999</v>
       </c>
       <c r="K17" s="3">
-        <v>-81.510850000000005</v>
+        <v>-81.510819999999995</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -1433,7 +1416,7 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D18" s="4">
         <v>43087</v>
@@ -1445,19 +1428,19 @@
         <v>43270</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" s="6">
         <v>0.05</v>
       </c>
       <c r="J18" s="3">
-        <v>25.902080000000002</v>
+        <v>25.901959999999999</v>
       </c>
       <c r="K18" s="3">
-        <v>-81.510859999999994</v>
+        <v>-81.510850000000005</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1471,7 +1454,7 @@
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="4">
         <v>43087</v>
@@ -1483,19 +1466,19 @@
         <v>43270</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" s="8">
-        <v>0</v>
+      <c r="I19" s="6">
+        <v>0.05</v>
       </c>
       <c r="J19" s="3">
         <v>25.902080000000002</v>
       </c>
       <c r="K19" s="3">
-        <v>-81.51088</v>
+        <v>-81.510859999999994</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1509,7 +1492,7 @@
         <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="4">
         <v>43087</v>
@@ -1521,16 +1504,16 @@
         <v>43270</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>1.5</v>
-      </c>
-      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>25.90203</v>
+        <v>25.902080000000002</v>
       </c>
       <c r="K20" s="3">
         <v>-81.51088</v>
@@ -1547,7 +1530,7 @@
         <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D21" s="4">
         <v>43087</v>
@@ -1559,19 +1542,19 @@
         <v>43270</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="I21" s="6">
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>25.90211</v>
+        <v>25.90203</v>
       </c>
       <c r="K21" s="3">
-        <v>-81.510890000000003</v>
+        <v>-81.51088</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -1585,7 +1568,7 @@
         <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="4">
         <v>43087</v>
@@ -1600,16 +1583,16 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I22" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>25.902149999999999</v>
+        <v>25.90211</v>
       </c>
       <c r="K22" s="3">
-        <v>-81.510900000000007</v>
+        <v>-81.510890000000003</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -1617,40 +1600,40 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
       </c>
       <c r="D23" s="4">
-        <v>43058</v>
+        <v>43087</v>
       </c>
       <c r="E23" s="4">
-        <v>43172</v>
+        <v>43127</v>
       </c>
       <c r="F23" s="4">
-        <v>43267</v>
+        <v>43270</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>24.650379999999998</v>
-      </c>
-      <c r="K23">
-        <v>-81.569490000000002</v>
-      </c>
-      <c r="L23" t="s">
-        <v>115</v>
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>25.902149999999999</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-81.510900000000007</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1661,7 +1644,7 @@
         <v>95</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D24" s="4">
         <v>43058</v>
@@ -1678,14 +1661,14 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0.05</v>
+      <c r="I24" s="6">
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>24.650670000000002</v>
+        <v>24.650379999999998</v>
       </c>
       <c r="K24">
-        <v>-81.596310000000003</v>
+        <v>-81.569490000000002</v>
       </c>
       <c r="L24" t="s">
         <v>115</v>
@@ -1699,7 +1682,7 @@
         <v>95</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="4">
         <v>43058</v>
@@ -1716,14 +1699,14 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" s="6">
-        <v>0</v>
+      <c r="I25">
+        <v>0.05</v>
       </c>
       <c r="J25">
-        <v>24.65062</v>
+        <v>24.650670000000002</v>
       </c>
       <c r="K25">
-        <v>-81.596369999999993</v>
+        <v>-81.596310000000003</v>
       </c>
       <c r="L25" t="s">
         <v>115</v>
@@ -1737,7 +1720,7 @@
         <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D26" s="4">
         <v>43058</v>
@@ -1758,10 +1741,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>24.650310000000001</v>
+        <v>24.65062</v>
       </c>
       <c r="K26">
-        <v>-81.596379999999996</v>
+        <v>-81.596369999999993</v>
       </c>
       <c r="L26" t="s">
         <v>115</v>
@@ -1775,7 +1758,7 @@
         <v>95</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="4">
         <v>43058</v>
@@ -1796,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>24.650230000000001</v>
+        <v>24.650310000000001</v>
       </c>
       <c r="K27">
-        <v>-81.59639</v>
+        <v>-81.596379999999996</v>
       </c>
       <c r="L27" t="s">
         <v>115</v>
@@ -1813,7 +1796,7 @@
         <v>95</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="4">
         <v>43058</v>
@@ -1834,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>24.650179999999999</v>
+        <v>24.650230000000001</v>
       </c>
       <c r="K28">
         <v>-81.59639</v>
@@ -1851,7 +1834,7 @@
         <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="4">
         <v>43058</v>
@@ -1872,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>24.650099999999998</v>
+        <v>24.650179999999999</v>
       </c>
       <c r="K29">
-        <v>-81.596410000000006</v>
+        <v>-81.59639</v>
       </c>
       <c r="L29" t="s">
         <v>115</v>
@@ -1889,7 +1872,7 @@
         <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D30" s="4">
         <v>43058</v>
@@ -1910,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>24.650020000000001</v>
+        <v>24.650099999999998</v>
       </c>
       <c r="K30">
         <v>-81.596410000000006</v>
@@ -1927,7 +1910,7 @@
         <v>95</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D31" s="4">
         <v>43058</v>
@@ -1948,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>24.650559999999999</v>
+        <v>24.650020000000001</v>
       </c>
       <c r="K31">
-        <v>-81.596419999999995</v>
+        <v>-81.596410000000006</v>
       </c>
       <c r="L31" t="s">
         <v>115</v>
@@ -1965,7 +1948,7 @@
         <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D32" s="4">
         <v>43058</v>
@@ -1977,7 +1960,7 @@
         <v>43267</v>
       </c>
       <c r="G32">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1986,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>24.65005</v>
+        <v>24.650559999999999</v>
       </c>
       <c r="K32">
         <v>-81.596419999999995</v>
@@ -2003,7 +1986,7 @@
         <v>95</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D33" s="4">
         <v>43058</v>
@@ -2015,22 +1998,22 @@
         <v>43267</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H33">
-        <v>0.3</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>24.64988</v>
+        <v>24.65005</v>
       </c>
       <c r="K33">
         <v>-81.596419999999995</v>
       </c>
-      <c r="L33">
-        <v>1</v>
+      <c r="L33" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2041,7 +2024,7 @@
         <v>95</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="4">
         <v>43058</v>
@@ -2062,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>24.649889999999999</v>
+        <v>24.64988</v>
       </c>
       <c r="K34">
         <v>-81.596419999999995</v>
@@ -2079,7 +2062,7 @@
         <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="4">
         <v>43058</v>
@@ -2094,16 +2077,16 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0.05</v>
+        <v>0.3</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>24.649940000000001</v>
+        <v>24.649889999999999</v>
       </c>
       <c r="K35">
-        <v>-81.596440000000001</v>
+        <v>-81.596419999999995</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -2117,7 +2100,7 @@
         <v>95</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" s="4">
         <v>43058</v>
@@ -2132,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>0.05</v>
@@ -2155,7 +2138,7 @@
         <v>95</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D37" s="4">
         <v>43058</v>
@@ -2167,22 +2150,22 @@
         <v>43267</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>0.05</v>
       </c>
       <c r="J37">
-        <v>24.650510000000001</v>
+        <v>24.649940000000001</v>
       </c>
       <c r="K37">
-        <v>-81.596450000000004</v>
-      </c>
-      <c r="L37" t="s">
-        <v>115</v>
+        <v>-81.596440000000001</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2193,7 +2176,7 @@
         <v>95</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D38" s="4">
         <v>43058</v>
@@ -2205,19 +2188,19 @@
         <v>43267</v>
       </c>
       <c r="G38">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="6">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>24.649979999999999</v>
+        <v>24.650510000000001</v>
       </c>
       <c r="K38">
-        <v>-81.596459999999993</v>
+        <v>-81.596450000000004</v>
       </c>
       <c r="L38" t="s">
         <v>115</v>
@@ -2231,7 +2214,7 @@
         <v>95</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D39" s="4">
         <v>43058</v>
@@ -2269,7 +2252,7 @@
         <v>95</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D40" s="4">
         <v>43058</v>
@@ -2281,19 +2264,19 @@
         <v>43267</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="8">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>24.65044</v>
+        <v>24.649979999999999</v>
       </c>
       <c r="K40">
-        <v>-81.596469999999997</v>
+        <v>-81.596459999999993</v>
       </c>
       <c r="L40" t="s">
         <v>115</v>
@@ -2301,40 +2284,40 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D41" s="4">
-        <v>43088</v>
+        <v>43058</v>
       </c>
       <c r="E41" s="4">
-        <v>43128</v>
+        <v>43172</v>
       </c>
       <c r="F41" s="4">
-        <v>43271</v>
+        <v>43267</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" s="6">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3">
-        <v>25.92484</v>
-      </c>
-      <c r="K41" s="3">
-        <v>-81.609189999999998</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>24.65044</v>
+      </c>
+      <c r="K41">
+        <v>-81.596469999999997</v>
+      </c>
+      <c r="L41" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -2345,7 +2328,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D42" s="4">
         <v>43088</v>
@@ -2357,19 +2340,19 @@
         <v>43271</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H42">
         <v>3</v>
       </c>
       <c r="I42" s="6">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J42" s="3">
-        <v>25.924849999999999</v>
+        <v>25.92484</v>
       </c>
       <c r="K42" s="3">
-        <v>-81.609210000000004</v>
+        <v>-81.609189999999998</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -2383,7 +2366,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43" s="4">
         <v>43088</v>
@@ -2398,16 +2381,16 @@
         <v>2</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I43" s="6">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="J43" s="3">
-        <v>25.924810000000001</v>
+        <v>25.924849999999999</v>
       </c>
       <c r="K43" s="3">
-        <v>-81.609250000000003</v>
+        <v>-81.609210000000004</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -2421,7 +2404,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D44" s="4">
         <v>43088</v>
@@ -2433,19 +2416,19 @@
         <v>43271</v>
       </c>
       <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
         <v>4</v>
-      </c>
-      <c r="H44">
-        <v>4.5</v>
       </c>
       <c r="I44" s="6">
         <v>2</v>
       </c>
       <c r="J44" s="3">
-        <v>25.92474</v>
+        <v>25.924810000000001</v>
       </c>
       <c r="K44" s="3">
-        <v>-81.609260000000006</v>
+        <v>-81.609250000000003</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -2459,7 +2442,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D45" s="4">
         <v>43088</v>
@@ -2471,19 +2454,19 @@
         <v>43271</v>
       </c>
       <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>4.5</v>
+      </c>
+      <c r="I45" s="6">
         <v>2</v>
       </c>
-      <c r="H45">
-        <v>6.5</v>
-      </c>
-      <c r="I45" s="6">
-        <v>2.5</v>
-      </c>
       <c r="J45" s="3">
-        <v>25.924900000000001</v>
+        <v>25.92474</v>
       </c>
       <c r="K45" s="3">
-        <v>-81.609269999999995</v>
+        <v>-81.609260000000006</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -2497,7 +2480,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D46" s="4">
         <v>43088</v>
@@ -2512,16 +2495,16 @@
         <v>2</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="I46" s="6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J46" s="3">
-        <v>25.92482</v>
+        <v>25.924900000000001</v>
       </c>
       <c r="K46" s="3">
-        <v>-81.609309999999994</v>
+        <v>-81.609269999999995</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -2535,7 +2518,7 @@
         <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D47" s="4">
         <v>43088</v>
@@ -2547,16 +2530,16 @@
         <v>43271</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="I47" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" s="3">
-        <v>25.924790000000002</v>
+        <v>25.92482</v>
       </c>
       <c r="K47" s="3">
         <v>-81.609309999999994</v>
@@ -2573,7 +2556,7 @@
         <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D48" s="4">
         <v>43088</v>
@@ -2585,19 +2568,19 @@
         <v>43271</v>
       </c>
       <c r="G48">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="I48" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48" s="3">
-        <v>25.924880000000002</v>
+        <v>25.924790000000002</v>
       </c>
       <c r="K48" s="3">
-        <v>-81.60933</v>
+        <v>-81.609309999999994</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -2611,7 +2594,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D49" s="4">
         <v>43088</v>
@@ -2623,13 +2606,13 @@
         <v>43271</v>
       </c>
       <c r="G49">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H49">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="I49" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J49" s="3">
         <v>25.924880000000002</v>
@@ -2649,7 +2632,7 @@
         <v>41</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50" s="4">
         <v>43088</v>
@@ -2661,19 +2644,19 @@
         <v>43271</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="I50" s="6">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="J50" s="3">
-        <v>25.924859999999999</v>
+        <v>25.924880000000002</v>
       </c>
       <c r="K50" s="3">
-        <v>-81.609340000000003</v>
+        <v>-81.60933</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -2687,7 +2670,7 @@
         <v>41</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D51" s="4">
         <v>43088</v>
@@ -2699,16 +2682,16 @@
         <v>43271</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H51">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="I51" s="6">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="J51" s="3">
-        <v>25.92484</v>
+        <v>25.924859999999999</v>
       </c>
       <c r="K51" s="3">
         <v>-81.609340000000003</v>
@@ -2719,33 +2702,36 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="D52" s="4">
-        <v>43057</v>
+        <v>43088</v>
       </c>
       <c r="E52" s="4">
-        <v>43173</v>
+        <v>43128</v>
       </c>
       <c r="F52" s="4">
-        <v>43266</v>
+        <v>43271</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
       </c>
       <c r="H52">
-        <v>1.5</v>
-      </c>
-      <c r="I52">
-        <v>0.05</v>
-      </c>
-      <c r="J52" s="10">
-        <v>24.662410000000001</v>
-      </c>
-      <c r="K52" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="I52" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>25.92484</v>
+      </c>
+      <c r="K52" s="3">
         <v>-81.609340000000003</v>
       </c>
       <c r="L52">
@@ -2754,37 +2740,34 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="D53" s="4">
-        <v>43088</v>
+        <v>43057</v>
       </c>
       <c r="E53" s="4">
-        <v>43128</v>
+        <v>43173</v>
       </c>
       <c r="F53" s="4">
-        <v>43271</v>
-      </c>
-      <c r="G53">
-        <v>9</v>
+        <v>43266</v>
       </c>
       <c r="H53">
-        <v>4</v>
-      </c>
-      <c r="I53" s="6">
-        <v>6</v>
-      </c>
-      <c r="J53" s="3">
-        <v>25.924890000000001</v>
-      </c>
-      <c r="K53" s="3">
-        <v>-81.609350000000006</v>
+        <v>1.5</v>
+      </c>
+      <c r="I53">
+        <v>0.05</v>
+      </c>
+      <c r="J53" s="10">
+        <v>24.662410000000001</v>
+      </c>
+      <c r="K53" s="10">
+        <v>-81.609340000000003</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -2792,34 +2775,37 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="D54" s="4">
-        <v>43057</v>
+        <v>43088</v>
       </c>
       <c r="E54" s="4">
-        <v>43173</v>
+        <v>43128</v>
       </c>
       <c r="F54" s="4">
-        <v>43266</v>
+        <v>43271</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
       </c>
       <c r="I54" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J54" s="10">
-        <v>24.662420000000001</v>
-      </c>
-      <c r="K54" s="10">
-        <v>-81.60942</v>
+        <v>6</v>
+      </c>
+      <c r="J54" s="3">
+        <v>25.924890000000001</v>
+      </c>
+      <c r="K54" s="3">
+        <v>-81.609350000000006</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -2833,7 +2819,7 @@
         <v>116</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D55" s="4">
         <v>43057</v>
@@ -2845,19 +2831,16 @@
         <v>43266</v>
       </c>
       <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I55" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J55" s="10">
-        <v>24.662310000000002</v>
+        <v>24.662420000000001</v>
       </c>
       <c r="K55" s="10">
-        <v>-81.609430000000003</v>
+        <v>-81.60942</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -2871,7 +2854,7 @@
         <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D56" s="4">
         <v>43057</v>
@@ -2885,14 +2868,17 @@
       <c r="G56">
         <v>1</v>
       </c>
+      <c r="H56" s="6">
+        <v>1</v>
+      </c>
       <c r="I56" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="10">
-        <v>24.662379999999999</v>
+        <v>24.662310000000002</v>
       </c>
       <c r="K56" s="10">
-        <v>-81.609440000000006</v>
+        <v>-81.609430000000003</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -2906,7 +2892,7 @@
         <v>116</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D57" s="4">
         <v>43057</v>
@@ -2918,19 +2904,16 @@
         <v>43266</v>
       </c>
       <c r="G57">
-        <v>0.05</v>
-      </c>
-      <c r="H57" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I57" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" s="10">
-        <v>24.66226</v>
+        <v>24.662379999999999</v>
       </c>
       <c r="K57" s="10">
-        <v>-81.6096</v>
+        <v>-81.609440000000006</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -2944,7 +2927,7 @@
         <v>116</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D58" s="4">
         <v>43057</v>
@@ -2956,19 +2939,19 @@
         <v>43266</v>
       </c>
       <c r="G58">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H58" s="6">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I58" s="6">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="J58" s="10">
-        <v>24.662220000000001</v>
+        <v>24.66226</v>
       </c>
       <c r="K58" s="10">
-        <v>-81.609809999999996</v>
+        <v>-81.6096</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -2982,7 +2965,7 @@
         <v>116</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D59" s="4">
         <v>43057</v>
@@ -2994,19 +2977,19 @@
         <v>43266</v>
       </c>
       <c r="G59">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H59" s="6">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="I59" s="6">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="J59" s="10">
-        <v>24.66216</v>
+        <v>24.662220000000001</v>
       </c>
       <c r="K59" s="10">
-        <v>-81.609989999999996</v>
+        <v>-81.609809999999996</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -3020,7 +3003,7 @@
         <v>116</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D60" s="4">
         <v>43057</v>
@@ -3032,19 +3015,19 @@
         <v>43266</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H60" s="6">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="I60" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" s="10">
-        <v>24.662050000000001</v>
+        <v>24.66216</v>
       </c>
       <c r="K60" s="10">
-        <v>-81.610150000000004</v>
+        <v>-81.609989999999996</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -3058,7 +3041,7 @@
         <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D61" s="4">
         <v>43057</v>
@@ -3070,19 +3053,19 @@
         <v>43266</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="I61">
-        <v>0.05</v>
+        <v>1.5</v>
+      </c>
+      <c r="I61" s="6">
+        <v>1</v>
       </c>
       <c r="J61" s="10">
-        <v>24.662009999999999</v>
+        <v>24.662050000000001</v>
       </c>
       <c r="K61" s="10">
-        <v>-81.610349999999997</v>
+        <v>-81.610150000000004</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -3096,7 +3079,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D62" s="4">
         <v>43057</v>
@@ -3111,16 +3094,16 @@
         <v>2</v>
       </c>
       <c r="H62" s="6">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I62">
         <v>0.05</v>
       </c>
       <c r="J62" s="10">
-        <v>24.661919999999999</v>
+        <v>24.662009999999999</v>
       </c>
       <c r="K62" s="10">
-        <v>-81.610550000000003</v>
+        <v>-81.610349999999997</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -3134,7 +3117,7 @@
         <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D63" s="4">
         <v>43057</v>
@@ -3146,19 +3129,19 @@
         <v>43266</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H63" s="6">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="I63">
         <v>0.05</v>
       </c>
       <c r="J63" s="10">
-        <v>24.661829999999998</v>
+        <v>24.661919999999999</v>
       </c>
       <c r="K63" s="10">
-        <v>-81.610770000000002</v>
+        <v>-81.610550000000003</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -3172,7 +3155,7 @@
         <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D64" s="4">
         <v>43057</v>
@@ -3184,19 +3167,19 @@
         <v>43266</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H64" s="6">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="I64">
         <v>0.05</v>
       </c>
       <c r="J64" s="10">
-        <v>24.661729999999999</v>
+        <v>24.661829999999998</v>
       </c>
       <c r="K64" s="10">
-        <v>-81.61103</v>
+        <v>-81.610770000000002</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -3210,7 +3193,7 @@
         <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D65" s="4">
         <v>43057</v>
@@ -3222,19 +3205,19 @@
         <v>43266</v>
       </c>
       <c r="G65">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H65" s="6">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="I65">
         <v>0.05</v>
       </c>
       <c r="J65" s="10">
-        <v>24.661639999999998</v>
+        <v>24.661729999999999</v>
       </c>
       <c r="K65" s="10">
-        <v>-81.611090000000004</v>
+        <v>-81.61103</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -3248,7 +3231,7 @@
         <v>116</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D66" s="4">
         <v>43057</v>
@@ -3260,19 +3243,19 @@
         <v>43266</v>
       </c>
       <c r="G66">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H66" s="6">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="I66">
         <v>0.05</v>
       </c>
       <c r="J66" s="10">
-        <v>24.661449999999999</v>
+        <v>24.661639999999998</v>
       </c>
       <c r="K66" s="10">
-        <v>-81.611239999999995</v>
+        <v>-81.611090000000004</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -3280,37 +3263,37 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="D67" s="4">
-        <v>43088</v>
+        <v>43057</v>
       </c>
       <c r="E67" s="4">
-        <v>43128</v>
+        <v>43173</v>
       </c>
       <c r="F67" s="4">
-        <v>43271</v>
+        <v>43266</v>
       </c>
       <c r="G67">
-        <v>6</v>
-      </c>
-      <c r="H67">
-        <v>1.75</v>
-      </c>
-      <c r="I67" s="6">
-        <v>3</v>
-      </c>
-      <c r="J67" s="3">
-        <v>25.923649999999999</v>
-      </c>
-      <c r="K67" s="3">
-        <v>-81.612390000000005</v>
+        <v>0.25</v>
+      </c>
+      <c r="H67" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="I67">
+        <v>0.05</v>
+      </c>
+      <c r="J67" s="10">
+        <v>24.661449999999999</v>
+      </c>
+      <c r="K67" s="10">
+        <v>-81.611239999999995</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -3324,7 +3307,7 @@
         <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D68" s="4">
         <v>43088</v>
@@ -3336,19 +3319,19 @@
         <v>43271</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H68">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="I68" s="6">
         <v>3</v>
       </c>
       <c r="J68" s="3">
-        <v>25.923590000000001</v>
+        <v>25.923649999999999</v>
       </c>
       <c r="K68" s="3">
-        <v>-81.612480000000005</v>
+        <v>-81.612390000000005</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -3362,7 +3345,7 @@
         <v>42</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D69" s="4">
         <v>43088</v>
@@ -3377,16 +3360,16 @@
         <v>3</v>
       </c>
       <c r="H69">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="I69" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69" s="3">
         <v>25.923590000000001</v>
       </c>
       <c r="K69" s="3">
-        <v>-81.612499999999997</v>
+        <v>-81.612480000000005</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -3400,7 +3383,7 @@
         <v>42</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D70" s="4">
         <v>43088</v>
@@ -3415,16 +3398,16 @@
         <v>3</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="I70" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" s="3">
-        <v>25.923539999999999</v>
+        <v>25.923590000000001</v>
       </c>
       <c r="K70" s="3">
-        <v>-81.612539999999996</v>
+        <v>-81.612499999999997</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -3438,7 +3421,7 @@
         <v>42</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71" s="4">
         <v>43088</v>
@@ -3450,7 +3433,7 @@
         <v>43271</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -3459,10 +3442,10 @@
         <v>2</v>
       </c>
       <c r="J71" s="3">
-        <v>25.923480000000001</v>
+        <v>25.923539999999999</v>
       </c>
       <c r="K71" s="3">
-        <v>-81.612629999999996</v>
+        <v>-81.612539999999996</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -3476,7 +3459,7 @@
         <v>42</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D72" s="4">
         <v>43088</v>
@@ -3494,13 +3477,13 @@
         <v>2</v>
       </c>
       <c r="I72" s="6">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J72" s="3">
-        <v>25.92343</v>
+        <v>25.923480000000001</v>
       </c>
       <c r="K72" s="3">
-        <v>-81.612690000000001</v>
+        <v>-81.612629999999996</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -3514,7 +3497,7 @@
         <v>42</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D73" s="4">
         <v>43088</v>
@@ -3526,19 +3509,19 @@
         <v>43271</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" s="6">
         <v>2.5</v>
       </c>
       <c r="J73" s="3">
-        <v>25.923349999999999</v>
+        <v>25.92343</v>
       </c>
       <c r="K73" s="3">
-        <v>-81.612729999999999</v>
+        <v>-81.612690000000001</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -3552,7 +3535,7 @@
         <v>42</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D74" s="4">
         <v>43088</v>
@@ -3564,19 +3547,19 @@
         <v>43271</v>
       </c>
       <c r="G74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74" s="6">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="J74" s="3">
-        <v>25.923279999999998</v>
+        <v>25.923349999999999</v>
       </c>
       <c r="K74" s="3">
-        <v>-81.612790000000004</v>
+        <v>-81.612729999999999</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -3590,7 +3573,7 @@
         <v>42</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D75" s="4">
         <v>43088</v>
@@ -3602,19 +3585,19 @@
         <v>43271</v>
       </c>
       <c r="G75">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75" s="6">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="J75" s="3">
-        <v>25.923220000000001</v>
+        <v>25.923279999999998</v>
       </c>
       <c r="K75" s="3">
-        <v>-81.612870000000001</v>
+        <v>-81.612790000000004</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -3622,27 +3605,37 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="D76" s="4">
+        <v>43088</v>
+      </c>
       <c r="E76" s="4">
-        <v>43172</v>
-      </c>
-      <c r="F76" s="4"/>
+        <v>43128</v>
+      </c>
+      <c r="F76" s="4">
+        <v>43271</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
+      </c>
       <c r="H76">
-        <v>0.75</v>
-      </c>
-      <c r="J76">
-        <v>24.67905</v>
-      </c>
-      <c r="K76">
-        <v>-81.653149999999997</v>
+        <v>2</v>
+      </c>
+      <c r="I76" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="J76" s="3">
+        <v>25.923220000000001</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-81.612870000000001</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -3656,7 +3649,7 @@
         <v>44</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4">
@@ -3664,13 +3657,13 @@
       </c>
       <c r="F77" s="4"/>
       <c r="H77">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J77">
-        <v>24.679099999999998</v>
+        <v>24.67905</v>
       </c>
       <c r="K77">
-        <v>-81.65316</v>
+        <v>-81.653149999999997</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -3684,7 +3677,7 @@
         <v>44</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4">
@@ -3692,13 +3685,13 @@
       </c>
       <c r="F78" s="4"/>
       <c r="H78">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J78">
-        <v>24.678999999999998</v>
+        <v>24.679099999999998</v>
       </c>
       <c r="K78">
-        <v>-81.653189999999995</v>
+        <v>-81.65316</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -3712,7 +3705,7 @@
         <v>44</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4">
@@ -3720,13 +3713,13 @@
       </c>
       <c r="F79" s="4"/>
       <c r="H79">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="J79">
-        <v>24.678930000000001</v>
+        <v>24.678999999999998</v>
       </c>
       <c r="K79">
-        <v>-81.653210000000001</v>
+        <v>-81.653189999999995</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -3740,26 +3733,21 @@
         <v>44</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="4">
-        <v>43056</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D80" s="4"/>
       <c r="E80" s="4">
         <v>43172</v>
       </c>
       <c r="F80" s="4"/>
-      <c r="G80">
-        <v>1.5</v>
-      </c>
       <c r="H80">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="J80">
-        <v>24.678830000000001</v>
+        <v>24.678930000000001</v>
       </c>
       <c r="K80">
-        <v>-81.653270000000006</v>
+        <v>-81.653210000000001</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -3773,21 +3761,26 @@
         <v>44</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D81" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="D81" s="4">
+        <v>43056</v>
+      </c>
       <c r="E81" s="4">
         <v>43172</v>
       </c>
       <c r="F81" s="4"/>
+      <c r="G81">
+        <v>1.5</v>
+      </c>
       <c r="H81">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="J81">
-        <v>24.678809999999999</v>
+        <v>24.678830000000001</v>
       </c>
       <c r="K81">
-        <v>-81.653369999999995</v>
+        <v>-81.653270000000006</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -3801,26 +3794,21 @@
         <v>44</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D82" s="4">
-        <v>43056</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D82" s="4"/>
       <c r="E82" s="4">
         <v>43172</v>
       </c>
       <c r="F82" s="4"/>
-      <c r="G82">
-        <v>1</v>
-      </c>
       <c r="H82">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J82">
-        <v>24.678840000000001</v>
+        <v>24.678809999999999</v>
       </c>
       <c r="K82">
-        <v>-81.653499999999994</v>
+        <v>-81.653369999999995</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -3831,34 +3819,29 @@
         <v>43</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="D83" s="4">
-        <v>43058</v>
+        <v>43056</v>
       </c>
       <c r="E83" s="4">
-        <v>43173</v>
-      </c>
-      <c r="F83" s="4">
-        <v>43266</v>
-      </c>
+        <v>43172</v>
+      </c>
+      <c r="F83" s="4"/>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="J83" s="5">
-        <v>24.647500000000001</v>
-      </c>
-      <c r="K83" s="5">
-        <v>-81.653530000000003</v>
+        <v>3</v>
+      </c>
+      <c r="J83">
+        <v>24.678840000000001</v>
+      </c>
+      <c r="K83">
+        <v>-81.653499999999994</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -3869,34 +3852,34 @@
         <v>43</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="D84" s="4">
-        <v>43056</v>
+        <v>43058</v>
       </c>
       <c r="E84" s="4">
-        <v>43172</v>
+        <v>43173</v>
       </c>
       <c r="F84" s="4">
-        <v>43267</v>
+        <v>43266</v>
       </c>
       <c r="G84">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="I84" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="J84">
-        <v>24.67877</v>
-      </c>
-      <c r="K84">
-        <v>-81.653589999999994</v>
+        <v>7.5</v>
+      </c>
+      <c r="J84" s="5">
+        <v>24.647500000000001</v>
+      </c>
+      <c r="K84" s="5">
+        <v>-81.653530000000003</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -3907,34 +3890,34 @@
         <v>43</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="D85" s="4">
-        <v>43058</v>
+        <v>43056</v>
       </c>
       <c r="E85" s="4">
-        <v>43173</v>
+        <v>43172</v>
       </c>
       <c r="F85" s="4">
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="I85" s="6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J85">
-        <v>24.647600000000001</v>
+        <v>24.67877</v>
       </c>
       <c r="K85">
-        <v>-81.653599999999997</v>
+        <v>-81.653589999999994</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -3948,7 +3931,7 @@
         <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D86" s="4">
         <v>43058</v>
@@ -3963,16 +3946,16 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" s="6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>24.647629999999999</v>
+        <v>24.647600000000001</v>
       </c>
       <c r="K86">
-        <v>-81.653630000000007</v>
+        <v>-81.653599999999997</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -3986,7 +3969,7 @@
         <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D87" s="4">
         <v>43058</v>
@@ -3998,19 +3981,19 @@
         <v>43266</v>
       </c>
       <c r="G87">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J87">
         <v>24.647629999999999</v>
       </c>
       <c r="K87">
-        <v>-81.653660000000002</v>
+        <v>-81.653630000000007</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -4021,34 +4004,34 @@
         <v>43</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="D88" s="4">
-        <v>43056</v>
+        <v>43058</v>
       </c>
       <c r="E88" s="4">
-        <v>43172</v>
+        <v>43173</v>
       </c>
       <c r="F88" s="4">
-        <v>43267</v>
+        <v>43266</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I88" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>24.678599999999999</v>
+        <v>24.647629999999999</v>
       </c>
       <c r="K88">
-        <v>-81.653700000000001</v>
+        <v>-81.653660000000002</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -4059,34 +4042,34 @@
         <v>43</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="D89" s="4">
-        <v>43058</v>
+        <v>43056</v>
       </c>
       <c r="E89" s="4">
-        <v>43173</v>
+        <v>43172</v>
       </c>
       <c r="F89" s="4">
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G89">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>0.05</v>
+        <v>5</v>
+      </c>
+      <c r="I89" s="6">
+        <v>0.75</v>
       </c>
       <c r="J89">
-        <v>24.647649999999999</v>
+        <v>24.678599999999999</v>
       </c>
       <c r="K89">
-        <v>-81.653720000000007</v>
+        <v>-81.653700000000001</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -4100,7 +4083,7 @@
         <v>117</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="4">
         <v>43058</v>
@@ -4112,19 +4095,19 @@
         <v>43266</v>
       </c>
       <c r="G90">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="H90">
-        <v>0.5</v>
-      </c>
-      <c r="I90" s="6">
-        <v>0.75</v>
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>0.05</v>
       </c>
       <c r="J90">
         <v>24.647649999999999</v>
       </c>
       <c r="K90">
-        <v>-81.653769999999994</v>
+        <v>-81.653720000000007</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -4138,7 +4121,7 @@
         <v>117</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D91" s="4">
         <v>43058</v>
@@ -4156,13 +4139,13 @@
         <v>0.5</v>
       </c>
       <c r="I91" s="6">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J91">
-        <v>24.647690000000001</v>
+        <v>24.647649999999999</v>
       </c>
       <c r="K91">
-        <v>-81.653779999999998</v>
+        <v>-81.653769999999994</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -4176,7 +4159,7 @@
         <v>117</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D92" s="4">
         <v>43058</v>
@@ -4194,13 +4177,13 @@
         <v>0.5</v>
       </c>
       <c r="I92" s="6">
-        <v>0</v>
-      </c>
-      <c r="J92" s="5">
-        <v>24.647680000000001</v>
-      </c>
-      <c r="K92" s="5">
-        <v>-81.653819999999996</v>
+        <v>0.5</v>
+      </c>
+      <c r="J92">
+        <v>24.647690000000001</v>
+      </c>
+      <c r="K92">
+        <v>-81.653779999999998</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -4211,34 +4194,34 @@
         <v>43</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="D93" s="4">
-        <v>43056</v>
+        <v>43058</v>
       </c>
       <c r="E93" s="4">
-        <v>43172</v>
+        <v>43173</v>
       </c>
       <c r="F93" s="4">
-        <v>43267</v>
+        <v>43266</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="I93" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J93">
-        <v>24.678439999999998</v>
-      </c>
-      <c r="K93">
-        <v>-81.653840000000002</v>
+        <v>0</v>
+      </c>
+      <c r="J93" s="5">
+        <v>24.647680000000001</v>
+      </c>
+      <c r="K93" s="5">
+        <v>-81.653819999999996</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -4249,31 +4232,31 @@
         <v>43</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="D94" s="4">
-        <v>43058</v>
+        <v>43056</v>
       </c>
       <c r="E94" s="4">
-        <v>43173</v>
+        <v>43172</v>
       </c>
       <c r="F94" s="4">
-        <v>43266</v>
+        <v>43267</v>
       </c>
       <c r="G94">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>0.2</v>
-      </c>
-      <c r="I94">
-        <v>0.05</v>
+        <v>3</v>
+      </c>
+      <c r="I94" s="6">
+        <v>0.5</v>
       </c>
       <c r="J94">
-        <v>24.6477</v>
+        <v>24.678439999999998</v>
       </c>
       <c r="K94">
         <v>-81.653840000000002</v>
@@ -4290,7 +4273,7 @@
         <v>117</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D95" s="4">
         <v>43058</v>
@@ -4302,19 +4285,19 @@
         <v>43266</v>
       </c>
       <c r="G95">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H95">
         <v>0.2</v>
       </c>
-      <c r="I95" s="6">
-        <v>0.75</v>
+      <c r="I95">
+        <v>0.05</v>
       </c>
       <c r="J95">
         <v>24.6477</v>
       </c>
       <c r="K95">
-        <v>-81.653859999999995</v>
+        <v>-81.653840000000002</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -4328,7 +4311,7 @@
         <v>117</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D96" s="4">
         <v>43058</v>
@@ -4340,19 +4323,19 @@
         <v>43266</v>
       </c>
       <c r="G96">
+        <v>0.2</v>
+      </c>
+      <c r="H96">
+        <v>0.2</v>
+      </c>
+      <c r="I96" s="6">
         <v>0.75</v>
-      </c>
-      <c r="H96">
-        <v>0.5</v>
-      </c>
-      <c r="I96" s="6">
-        <v>1.5</v>
       </c>
       <c r="J96">
         <v>24.6477</v>
       </c>
       <c r="K96">
-        <v>-81.653899999999993</v>
+        <v>-81.653859999999995</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -4366,7 +4349,7 @@
         <v>117</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D97" s="4">
         <v>43058</v>
@@ -4378,7 +4361,7 @@
         <v>43266</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="H97">
         <v>0.5</v>
@@ -4387,10 +4370,10 @@
         <v>1.5</v>
       </c>
       <c r="J97">
-        <v>24.64771</v>
+        <v>24.6477</v>
       </c>
       <c r="K97">
-        <v>-81.653909999999996</v>
+        <v>-81.653899999999993</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -4401,29 +4384,34 @@
         <v>43</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D98" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="D98" s="4">
+        <v>43058</v>
+      </c>
       <c r="E98" s="4">
-        <v>43172</v>
+        <v>43173</v>
       </c>
       <c r="F98" s="4">
-        <v>43267</v>
+        <v>43266</v>
+      </c>
+      <c r="G98">
+        <v>4</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="I98" s="6">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="J98">
-        <v>24.678360000000001</v>
+        <v>24.64771</v>
       </c>
       <c r="K98">
-        <v>-81.654120000000006</v>
+        <v>-81.653909999999996</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -4437,31 +4425,26 @@
         <v>44</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" s="4">
-        <v>43056</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D99" s="4"/>
       <c r="E99" s="4">
         <v>43172</v>
       </c>
       <c r="F99" s="4">
         <v>43267</v>
       </c>
-      <c r="G99">
-        <v>2</v>
-      </c>
       <c r="H99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I99" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J99">
-        <v>24.6782</v>
+        <v>24.678360000000001</v>
       </c>
       <c r="K99">
-        <v>-81.654349999999994</v>
+        <v>-81.654120000000006</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -4475,26 +4458,31 @@
         <v>44</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D100" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="D100" s="4">
+        <v>43056</v>
+      </c>
       <c r="E100" s="4">
         <v>43172</v>
       </c>
       <c r="F100" s="4">
         <v>43267</v>
       </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
       <c r="H100">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I100" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J100">
-        <v>24.678139999999999</v>
+        <v>24.6782</v>
       </c>
       <c r="K100">
-        <v>-81.654619999999994</v>
+        <v>-81.654349999999994</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -4508,31 +4496,26 @@
         <v>44</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D101" s="4">
-        <v>43056</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D101" s="4"/>
       <c r="E101" s="4">
         <v>43172</v>
       </c>
       <c r="F101" s="4">
         <v>43267</v>
       </c>
-      <c r="G101">
-        <v>3</v>
-      </c>
       <c r="H101">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I101" s="6">
         <v>4</v>
       </c>
       <c r="J101">
-        <v>24.67801</v>
+        <v>24.678139999999999</v>
       </c>
       <c r="K101">
-        <v>-81.654799999999994</v>
+        <v>-81.654619999999994</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -4546,7 +4529,7 @@
         <v>44</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D102" s="4">
         <v>43056</v>
@@ -4558,19 +4541,19 @@
         <v>43267</v>
       </c>
       <c r="G102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H102">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I102" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J102">
-        <v>24.677820000000001</v>
+        <v>24.67801</v>
       </c>
       <c r="K102">
-        <v>-81.654839999999993</v>
+        <v>-81.654799999999994</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -4584,7 +4567,7 @@
         <v>44</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D103" s="4">
         <v>43056</v>
@@ -4596,19 +4579,19 @@
         <v>43267</v>
       </c>
       <c r="G103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I103" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J103">
-        <v>24.677700000000002</v>
+        <v>24.677820000000001</v>
       </c>
       <c r="K103">
-        <v>-81.654960000000003</v>
+        <v>-81.654839999999993</v>
       </c>
       <c r="L103">
         <v>1</v>
@@ -4622,7 +4605,7 @@
         <v>44</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D104" s="4">
         <v>43056</v>
@@ -4634,19 +4617,19 @@
         <v>43267</v>
       </c>
       <c r="G104">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I104" s="6">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="J104">
-        <v>24.677630000000001</v>
+        <v>24.677700000000002</v>
       </c>
       <c r="K104">
-        <v>-81.655029999999996</v>
+        <v>-81.654960000000003</v>
       </c>
       <c r="L104">
         <v>1</v>
@@ -4654,31 +4637,37 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D105" s="4">
-        <v>43089</v>
+        <v>43056</v>
+      </c>
+      <c r="E105" s="4">
+        <v>43172</v>
       </c>
       <c r="F105" s="4">
-        <v>43271</v>
+        <v>43267</v>
       </c>
       <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105" s="3">
-        <v>26.021433333333334</v>
-      </c>
-      <c r="K105" s="3">
-        <v>-81.734016666666662</v>
+        <v>2.5</v>
+      </c>
+      <c r="H105">
+        <v>5</v>
+      </c>
+      <c r="I105" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J105">
+        <v>24.677630000000001</v>
+      </c>
+      <c r="K105">
+        <v>-81.655029999999996</v>
       </c>
       <c r="L105">
         <v>1</v>
@@ -4692,19 +4681,25 @@
         <v>6</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D106" s="4">
         <v>43089</v>
       </c>
+      <c r="F106" s="4">
+        <v>43271</v>
+      </c>
       <c r="G106">
         <v>0</v>
       </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
       <c r="J106" s="3">
-        <v>26.021350000000002</v>
+        <v>26.021433333333334</v>
       </c>
       <c r="K106" s="3">
-        <v>-81.734033333333329</v>
+        <v>-81.734016666666662</v>
       </c>
       <c r="L106">
         <v>1</v>
@@ -4718,25 +4713,19 @@
         <v>6</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D107" s="4">
         <v>43089</v>
       </c>
-      <c r="F107" s="4">
-        <v>43271</v>
-      </c>
       <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" s="3">
         <v>26.021350000000002</v>
       </c>
       <c r="K107" s="3">
-        <v>-81.734083333333331</v>
+        <v>-81.734033333333329</v>
       </c>
       <c r="L107">
         <v>1</v>
@@ -4750,7 +4739,7 @@
         <v>6</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D108" s="4">
         <v>43089</v>
@@ -4765,10 +4754,10 @@
         <v>0</v>
       </c>
       <c r="J108" s="3">
-        <v>26.022066666666667</v>
+        <v>26.021350000000002</v>
       </c>
       <c r="K108" s="3">
-        <v>-81.734099999999998</v>
+        <v>-81.734083333333331</v>
       </c>
       <c r="L108">
         <v>1</v>
@@ -4782,28 +4771,22 @@
         <v>6</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D109" s="4">
         <v>43089</v>
       </c>
-      <c r="E109" s="4">
-        <v>43128</v>
-      </c>
       <c r="F109" s="4">
         <v>43271</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109" s="7">
+      <c r="I109">
         <v>0</v>
       </c>
       <c r="J109" s="3">
-        <v>26.021433333333334</v>
+        <v>26.022066666666667</v>
       </c>
       <c r="K109" s="3">
         <v>-81.734099999999998</v>
@@ -4820,19 +4803,31 @@
         <v>6</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D110" s="4">
         <v>43089</v>
       </c>
+      <c r="E110" s="4">
+        <v>43128</v>
+      </c>
+      <c r="F110" s="4">
+        <v>43271</v>
+      </c>
       <c r="G110">
         <v>0</v>
       </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" s="7">
+        <v>0</v>
+      </c>
       <c r="J110" s="3">
-        <v>26.022083333333335</v>
+        <v>26.021433333333334</v>
       </c>
       <c r="K110" s="3">
-        <v>-81.734116666666665</v>
+        <v>-81.734099999999998</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -4846,25 +4841,19 @@
         <v>6</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D111" s="4">
         <v>43089</v>
       </c>
-      <c r="F111" s="4">
-        <v>43271</v>
-      </c>
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
       <c r="J111" s="3">
-        <v>26.022033333333333</v>
+        <v>26.022083333333335</v>
       </c>
       <c r="K111" s="3">
-        <v>-81.734133333333332</v>
+        <v>-81.734116666666665</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -4878,31 +4867,25 @@
         <v>6</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D112" s="4">
         <v>43089</v>
       </c>
-      <c r="E112" s="4">
-        <v>43128</v>
-      </c>
       <c r="F112" s="4">
         <v>43271</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112" s="7">
+      <c r="I112">
         <v>0</v>
       </c>
       <c r="J112" s="3">
-        <v>26.022016666666666</v>
+        <v>26.022033333333333</v>
       </c>
       <c r="K112" s="3">
-        <v>-81.73415</v>
+        <v>-81.734133333333332</v>
       </c>
       <c r="L112">
         <v>1</v>
@@ -4916,19 +4899,31 @@
         <v>6</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" s="4">
         <v>43089</v>
       </c>
+      <c r="E113" s="4">
+        <v>43128</v>
+      </c>
+      <c r="F113" s="4">
+        <v>43271</v>
+      </c>
       <c r="G113">
         <v>0</v>
       </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" s="7">
+        <v>0</v>
+      </c>
       <c r="J113" s="3">
-        <v>26.022316666666665</v>
+        <v>26.022016666666666</v>
       </c>
       <c r="K113" s="3">
-        <v>-81.734183333333334</v>
+        <v>-81.73415</v>
       </c>
       <c r="L113">
         <v>1</v>
@@ -4942,26 +4937,19 @@
         <v>6</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="4">
         <v>43089</v>
       </c>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4">
-        <v>43271</v>
-      </c>
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
       <c r="J114" s="3">
-        <v>26.022400000000001</v>
+        <v>26.022316666666665</v>
       </c>
       <c r="K114" s="3">
-        <v>-81.734233333333336</v>
+        <v>-81.734183333333334</v>
       </c>
       <c r="L114">
         <v>1</v>
@@ -4975,31 +4963,26 @@
         <v>6</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D115" s="4">
         <v>43089</v>
       </c>
-      <c r="E115" s="4">
-        <v>43128</v>
-      </c>
+      <c r="E115" s="4"/>
       <c r="F115" s="4">
         <v>43271</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115" s="7">
+      <c r="I115">
         <v>0</v>
       </c>
       <c r="J115" s="3">
-        <v>26.022383333333334</v>
+        <v>26.022400000000001</v>
       </c>
       <c r="K115" s="3">
-        <v>-81.73426666666667</v>
+        <v>-81.734233333333336</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -5013,23 +4996,28 @@
         <v>6</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D116" s="4">
         <v>43089</v>
       </c>
-      <c r="E116" s="4"/>
+      <c r="E116" s="4">
+        <v>43128</v>
+      </c>
       <c r="F116" s="4">
         <v>43271</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="I116">
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116" s="7">
         <v>0</v>
       </c>
       <c r="J116" s="3">
-        <v>26.022300000000001</v>
+        <v>26.022383333333334</v>
       </c>
       <c r="K116" s="3">
         <v>-81.73426666666667</v>
@@ -5043,22 +5031,29 @@
         <v>5</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D117" s="4">
-        <v>43088</v>
-      </c>
+        <v>43089</v>
+      </c>
+      <c r="E117" s="4"/>
       <c r="F117" s="4">
         <v>43271</v>
       </c>
       <c r="G117">
-        <v>6</v>
-      </c>
-      <c r="I117" s="6">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117" s="3">
+        <v>26.022300000000001</v>
+      </c>
+      <c r="K117" s="3">
+        <v>-81.73426666666667</v>
       </c>
       <c r="L117">
         <v>1</v>
@@ -5069,31 +5064,23 @@
         <v>5</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C118" t="s">
-        <v>85</v>
+        <v>42</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D118" s="4">
-        <v>43087</v>
-      </c>
-      <c r="E118" s="4">
-        <v>43127</v>
+        <v>43088</v>
       </c>
       <c r="F118" s="4">
-        <v>43270</v>
+        <v>43271</v>
       </c>
       <c r="G118">
-        <v>0.05</v>
-      </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="I118" s="6">
+        <v>5</v>
+      </c>
       <c r="L118">
         <v>1</v>
       </c>
@@ -5106,7 +5093,7 @@
         <v>84</v>
       </c>
       <c r="C119" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D119" s="4">
         <v>43087</v>
@@ -5118,7 +5105,7 @@
         <v>43270</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -5140,7 +5127,7 @@
         <v>84</v>
       </c>
       <c r="C120" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D120" s="4">
         <v>43087</v>
@@ -5174,7 +5161,7 @@
         <v>84</v>
       </c>
       <c r="C121" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D121" s="4">
         <v>43087</v>
@@ -5186,7 +5173,7 @@
         <v>43270</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -5208,7 +5195,7 @@
         <v>84</v>
       </c>
       <c r="C122" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D122" s="4">
         <v>43087</v>
@@ -5222,8 +5209,8 @@
       <c r="G122">
         <v>1</v>
       </c>
-      <c r="H122" s="7">
-        <v>2</v>
+      <c r="H122">
+        <v>1</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -5242,7 +5229,7 @@
         <v>84</v>
       </c>
       <c r="C123" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D123" s="4">
         <v>43087</v>
@@ -5254,10 +5241,10 @@
         <v>43270</v>
       </c>
       <c r="G123">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H123" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -5276,7 +5263,7 @@
         <v>84</v>
       </c>
       <c r="C124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D124" s="4">
         <v>43087</v>
@@ -5288,7 +5275,7 @@
         <v>43270</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="H124" s="7">
         <v>0</v>
@@ -5310,7 +5297,7 @@
         <v>84</v>
       </c>
       <c r="C125" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D125" s="4">
         <v>43087</v>
@@ -5322,10 +5309,10 @@
         <v>43270</v>
       </c>
       <c r="G125">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H125" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -5344,7 +5331,7 @@
         <v>84</v>
       </c>
       <c r="C126" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D126" s="4">
         <v>43087</v>
@@ -5356,10 +5343,10 @@
         <v>43270</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H126" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -5378,7 +5365,7 @@
         <v>84</v>
       </c>
       <c r="C127" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D127" s="4">
         <v>43087</v>
@@ -5390,10 +5377,10 @@
         <v>43270</v>
       </c>
       <c r="G127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H127" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -5406,22 +5393,34 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="C128" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128" s="4">
+        <v>43087</v>
+      </c>
+      <c r="E128" s="4">
+        <v>43127</v>
+      </c>
       <c r="F128" s="4">
-        <v>43267</v>
-      </c>
-      <c r="I128" s="6">
-        <v>2.5</v>
-      </c>
+        <v>43270</v>
+      </c>
+      <c r="G128">
+        <v>3</v>
+      </c>
+      <c r="H128" s="7">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
       <c r="L128">
         <v>1</v>
       </c>
@@ -5434,7 +5433,7 @@
         <v>44</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -5442,7 +5441,7 @@
         <v>43267</v>
       </c>
       <c r="I129" s="6">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="L129">
         <v>1</v>
@@ -5456,7 +5455,7 @@
         <v>44</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -5464,7 +5463,7 @@
         <v>43267</v>
       </c>
       <c r="I130" s="6">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L130">
         <v>1</v>
@@ -5475,44 +5474,70 @@
         <v>43</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4">
+        <v>43267</v>
+      </c>
+      <c r="I131" s="6">
+        <v>3</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>43</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D132" s="4">
         <v>43057</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E132" s="4">
         <v>43173</v>
       </c>
-      <c r="F131" s="4">
+      <c r="F132" s="4">
         <v>43266</v>
       </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131">
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
         <v>4</v>
       </c>
-      <c r="I131">
+      <c r="I132">
         <v>0.05</v>
       </c>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c r="L131">
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L131" xr:uid="{4CD2D797-5047-D443-8814-D3CC92EF5DD1}">
-    <sortState ref="A2:L131">
-      <sortCondition descending="1" ref="K1:K131"/>
+  <autoFilter ref="A2:L132" xr:uid="{4CD2D797-5047-D443-8814-D3CC92EF5DD1}">
+    <sortState ref="A3:L132">
+      <sortCondition descending="1" ref="K2:K132"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:I103">
-    <sortCondition descending="1" ref="A2:A103"/>
+  <sortState ref="A3:I104">
+    <sortCondition descending="1" ref="A3:A104"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
